--- a/va_facility_data_2025-02-20/Danbury VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Danbury%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Danbury VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Danbury%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd0a563217c7c401b90feb3cba04cb23e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raa88e3e34e5942d2a23198bd4d6880a1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1cae1ab054094844aaad6b120b865e5d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbb14fad2dc3d44bbadb88e7ef6aa0e3f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R99c2c06182c44362845d75a4de780c4b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R29961ac08dbb4a9a91e3619268c171ef"/>
   </x:sheets>
 </x:workbook>
 </file>
